--- a/Final Deliverables/UAT/UAT.xlsx
+++ b/Final Deliverables/UAT/UAT.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FCEE0A-4735-481C-9F96-0B2E39D34BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Shopenzer Testcases" sheetId="1" r:id="rId1"/>
     <sheet name="Testscearnios" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -93,12 +92,6 @@
     <t>Maximum Marks</t>
   </si>
   <si>
-    <t>PNT2022TMIDxxxxxx</t>
-  </si>
-  <si>
-    <t>Project - xxx</t>
-  </si>
-  <si>
     <t>4 marks</t>
   </si>
   <si>
@@ -190,13 +183,19 @@
   </si>
   <si>
     <t>Team Leaders and Members</t>
+  </si>
+  <si>
+    <t>Project - Global Sales Data Analytics</t>
+  </si>
+  <si>
+    <t>PNT2022TMID07570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +391,16 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,16 +426,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,7 +461,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,7 +516,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -572,7 +571,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -627,7 +626,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +681,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +736,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +791,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -847,7 +846,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +901,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +956,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,7 +1011,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1067,7 +1066,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1121,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1176,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1231,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1286,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1341,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1396,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1451,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1506,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1561,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1616,7 @@
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1671,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1792,27 +1791,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1844,24 +1825,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2037,15 +2000,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6:N12"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
@@ -2064,87 +2027,87 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+    <row r="1" spans="1:14">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="11">
         <v>44876</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="28.9" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2188,9 +2151,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="98.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -2199,16 +2162,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -2220,12 +2183,12 @@
         <v>15</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -2234,30 +2197,30 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="90">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -2266,30 +2229,30 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -2298,30 +2261,30 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -2330,62 +2293,62 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="87.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -2393,85 +2356,85 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>39</v>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1">
       <c r="D13" s="3"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="2" customFormat="1">
       <c r="D14" s="3"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8">
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8">
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8">
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8">
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8">
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8">
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8">
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:8">
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:8">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:8">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:8">
       <c r="H31" s="4"/>
     </row>
   </sheetData>
@@ -2486,84 +2449,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B10" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
